--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value631.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value631.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.217968834243516</v>
+        <v>1.210126638412476</v>
       </c>
       <c r="B1">
-        <v>2.321171313852739</v>
+        <v>2.437742233276367</v>
       </c>
       <c r="C1">
-        <v>3.688165032468845</v>
+        <v>4.689794063568115</v>
       </c>
       <c r="D1">
-        <v>3.108957069015458</v>
+        <v>2.595423936843872</v>
       </c>
       <c r="E1">
-        <v>1.107400948531465</v>
+        <v>1.089164614677429</v>
       </c>
     </row>
   </sheetData>
